--- a/StructureDefinition-ext-R5-SubstanceDefinition.str.technique.xlsx
+++ b/StructureDefinition-ext-R5-SubstanceDefinition.str.technique.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `SubstanceDefinition.structure.technique` 0..* `CodeableConcept`
 *  R4B: `SubstanceDefinition.structure.technique` 0..* `CodeableConcept`
 Following are the generation technical comments:
-Element `SubstanceDefinition.structure.technique` is mapped to FHIR R4 structure `SubstanceSpecification`, but has no target element specified.</t>
+Element `SubstanceDefinition.structure.technique` is will have a context of SubstanceSpecification.structure based on following the parent source element upwards and mapping to `SubstanceSpecification`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:SubstanceSpecification.structure</t>
   </si>
   <si>
     <t>ID</t>
